--- a/Documents/廣韻/《廣韻》反切查詢工具【韻典網】.xlsx
+++ b/Documents/廣韻/《廣韻》反切查詢工具【韻典網】.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\Documents\廣韻\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09911089-28C7-4E0B-B812-03D8D8EAE781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D538FA-D712-47F0-83DB-D72150BE45FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-195" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13146,11 +13146,11 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>戶吳</t>
+    <t>八音：</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>八音：</t>
+    <t>直利</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -19810,7 +19810,7 @@
   <dimension ref="B1:X13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.875" defaultRowHeight="39" outlineLevelCol="1"/>
@@ -19841,19 +19841,19 @@
         <v>2423</v>
       </c>
       <c r="C2" s="217" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="G2" s="335" t="s">
         <v>2432</v>
       </c>
       <c r="H2" s="332" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C5, C8, C10)</f>
-        <v>hoo1</v>
+        <v>ti7</v>
       </c>
       <c r="I2" s="332"/>
       <c r="K2" s="333" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(H4, "遇", H7, N7:N7)</f>
-        <v>匣遇模一</v>
+        <v>澄遇至一三</v>
       </c>
       <c r="Q2" s="45" t="s">
         <v>2107</v>
@@ -19885,33 +19885,33 @@
       </c>
       <c r="C4" s="218" t="str">
         <f xml:space="preserve"> LEFT(TRIM($C$2),1)</f>
-        <v>戶</v>
+        <v>直</v>
       </c>
       <c r="D4" s="59">
         <f>MATCH(E4, 切語上字表[切語上字集], 0)</f>
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E4" s="46" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("*", C4, "*")</f>
-        <v>*戶*</v>
+        <v>*直*</v>
       </c>
       <c r="G4" s="335" t="s">
         <v>2425</v>
       </c>
       <c r="H4" s="218" t="str" cm="1">
         <f t="array" ref="H4" xml:space="preserve"> INDEX(切語上字表[聲母], 查詢!$D$4)</f>
-        <v>匣</v>
+        <v>澄</v>
       </c>
       <c r="J4" s="335" t="s">
         <v>2433</v>
       </c>
       <c r="K4" s="337" t="str" cm="1">
         <f t="array" ref="K4" xml:space="preserve"> INDEX(反切上字表[清濁], 查詢!$D$4)</f>
-        <v>全清</v>
+        <v>全濁</v>
       </c>
       <c r="M4" s="46" t="str">
         <f xml:space="preserve"> IF( RIGHT(K4)="清", "陰", "陽" )</f>
-        <v>陰</v>
+        <v>陽</v>
       </c>
       <c r="N4" s="46"/>
       <c r="O4" s="46"/>
@@ -19931,7 +19931,7 @@
       </c>
       <c r="C5" s="218" t="str" cm="1">
         <f t="array" ref="C5" xml:space="preserve"> INDEX(切語上字表[聲母標音], 查詢!$D$4)</f>
-        <v>h</v>
+        <v>t</v>
       </c>
       <c r="G5" s="335"/>
       <c r="J5" s="335"/>
@@ -19973,36 +19973,36 @@
       </c>
       <c r="C7" s="218" t="str">
         <f xml:space="preserve"> RIGHT(TRIM($C$2),1)</f>
-        <v>吳</v>
+        <v>利</v>
       </c>
       <c r="D7" s="59">
         <f>MATCH(E7, 切語下字表[切語下字集], 0)</f>
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E7" s="46" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("*", C7, "*")</f>
-        <v>*吳*</v>
+        <v>*利*</v>
       </c>
       <c r="G7" s="335" t="s">
         <v>2428</v>
       </c>
       <c r="H7" s="218" t="str" cm="1">
         <f t="array" ref="H7" xml:space="preserve"> INDEX(切語下字表[韻母], $D$7)</f>
-        <v>模</v>
+        <v>至一</v>
       </c>
       <c r="J7" s="335" t="s">
         <v>2437</v>
       </c>
       <c r="K7" s="337" t="str" cm="1">
         <f t="array" ref="K7" xml:space="preserve"> INDEX(切語下字表[攝], $D$7)</f>
-        <v>遇</v>
+        <v>止</v>
       </c>
       <c r="M7" s="335" t="s">
         <v>2434</v>
       </c>
       <c r="N7" s="218" t="str" cm="1">
         <f t="array" ref="N7" xml:space="preserve"> TEXT(INDEX(切語下字表[等], $D$7), "[DBNum1]")</f>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="O7" s="218"/>
       <c r="Q7" s="45" t="s">
@@ -20024,7 +20024,7 @@
       </c>
       <c r="C8" s="218" t="str" cm="1">
         <f t="array" ref="C8" xml:space="preserve"> INDEX(切語下字表[韻母標音], $D$7)</f>
-        <v>oo</v>
+        <v>i</v>
       </c>
       <c r="G8" s="335"/>
       <c r="J8" s="335" t="s">
@@ -20032,7 +20032,7 @@
       </c>
       <c r="K8" s="337" t="str" cm="1">
         <f t="array" ref="K8" xml:space="preserve"> INDEX(切語下字表[韻系], $D$7)</f>
-        <v>模</v>
+        <v>脂一</v>
       </c>
       <c r="M8" s="335" t="s">
         <v>2435</v>
@@ -20064,7 +20064,7 @@
       </c>
       <c r="N9" s="218" t="str" cm="1">
         <f t="array" ref="N9" xml:space="preserve"> INDEX(切語下字表[四聲], $D$7)</f>
-        <v>平</v>
+        <v>去</v>
       </c>
       <c r="O9" s="218"/>
       <c r="S9" s="215"/>
@@ -20076,21 +20076,21 @@
       </c>
       <c r="C10" s="218">
         <f xml:space="preserve"> IF(K10 &lt;&gt; "陽上", _xlfn.XLOOKUP(K10, 反切規則表!M2:M9, 反切規則表!N2:N9, "調值有錯！"), IF( K4 = "全濁", 7, 2) )</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G10" s="335" t="s">
         <v>2430</v>
       </c>
       <c r="H10" s="218" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT( RIGHT(K4), N9)</f>
-        <v>清平</v>
+        <v>濁去</v>
       </c>
       <c r="J10" s="335" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="K10" s="337" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(M4,N9)</f>
-        <v>陰平</v>
+        <v>陽去</v>
       </c>
       <c r="L10" s="46"/>
       <c r="S10" s="215"/>
